--- a/data/trans_bre/P57_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Dificultad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-3.678061629882803</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.113731866641988</v>
+        <v>-2.113731866641983</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.1574998414628174</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.06596575756878086</v>
+        <v>-0.06596575756878069</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.056792609567834</v>
+        <v>-7.264044676572193</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.445988023696843</v>
+        <v>-8.358670901127981</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.2806555378220523</v>
+        <v>-0.2855841812126211</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2320604247668554</v>
+        <v>-0.2313155585997997</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.02575519213843109</v>
+        <v>-0.1540690631079857</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.191842765781094</v>
+        <v>3.567401200517658</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.002244779613316444</v>
+        <v>-0.006850846762068419</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1550516951371467</v>
+        <v>0.1242536528943265</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-0.5819967597954168</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-7.881759757114127</v>
+        <v>-7.88175975711412</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.02068434622725163</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.1647090995511502</v>
+        <v>-0.1647090995511501</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.974779725505975</v>
+        <v>-4.838083255841765</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-12.55944263577679</v>
+        <v>-12.26745582698972</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1662539683028503</v>
+        <v>-0.1617144343815741</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2447608071440048</v>
+        <v>-0.2433038689109996</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.73804249125093</v>
+        <v>3.605733256672297</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-3.480899439062122</v>
+        <v>-3.537379847214867</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1435099926432322</v>
+        <v>0.1390396318744523</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.07530375527403207</v>
+        <v>-0.07638827164900312</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-6.488968998429661</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-7.60108575089094</v>
+        <v>-7.601085750890929</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.1887844611483346</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.1548634851903678</v>
+        <v>-0.1548634851903676</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.69971860141111</v>
+        <v>-11.17418167243142</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.00021896926638</v>
+        <v>-12.10002043703935</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2984745576217218</v>
+        <v>-0.2976272062292452</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2321065082058574</v>
+        <v>-0.235922721800262</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.333025406396769</v>
+        <v>-1.81032800160367</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.293109002802901</v>
+        <v>-3.228836520176039</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>-0.0408912256254902</v>
+        <v>-0.05490378677689746</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.07160879302537927</v>
+        <v>-0.06988895543692261</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-5.423228162506971</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7265883703844289</v>
+        <v>0.7265883703844345</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1230328586090713</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.01473236180767044</v>
+        <v>0.01473236180767055</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-12.84552958372314</v>
+        <v>-12.22613153289507</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.254745576251042</v>
+        <v>-4.027662153597135</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2680886773144595</v>
+        <v>-0.26203368327917</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08090318277221908</v>
+        <v>-0.07715916280021608</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9237107452716319</v>
+        <v>0.9174168138986838</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.8161972495757</v>
+        <v>5.392699359782569</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.02428082744567059</v>
+        <v>0.02199375397029554</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1036856184187772</v>
+        <v>0.1156625142033554</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.362652905426565</v>
+        <v>-6.230564881052298</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.443976583934056</v>
+        <v>-7.595345368192402</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.199584526478213</v>
+        <v>-0.1970748284231545</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1563774815344366</v>
+        <v>-0.1607840393771701</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.860256494182245</v>
+        <v>-1.721115875487484</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.749971783874587</v>
+        <v>-2.774384885068627</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.06276517654750045</v>
+        <v>-0.06160717522535315</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.06164049421291206</v>
+        <v>-0.06239692468477996</v>
       </c>
     </row>
     <row r="19">
